--- a/Documents/TestCase_001.xlsx
+++ b/Documents/TestCase_001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivantay/Automation/Others/HooqTV_Test/automation_practice_java/UserData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivantay/Automation/Others/HooqTV_Test/automation_practice_java/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E944E7B-7B11-D74D-BFDD-F3131C148F77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01252109-69D9-3A4D-B93D-21BDA53A7AA9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="6100" windowWidth="27240" windowHeight="16440" xr2:uid="{606C37DF-B12F-7D43-8252-8773D7000532}"/>
+    <workbookView xWindow="3640" yWindow="2000" windowWidth="27240" windowHeight="16440" xr2:uid="{606C37DF-B12F-7D43-8252-8773D7000532}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,11 +457,12 @@
   <dimension ref="A3:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="55.5" customWidth="1"/>
     <col min="3" max="3" width="126" customWidth="1"/>
   </cols>
